--- a/biology/Botanique/Piment_de_la_Jamaïque/Piment_de_la_Jamaïque.xlsx
+++ b/biology/Botanique/Piment_de_la_Jamaïque/Piment_de_la_Jamaïque.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Piment_de_la_Jama%C3%AFque</t>
+          <t>Piment_de_la_Jamaïque</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pimenta dioica
 Le piment de la Jamaïque ou poivre de la Jamaïque (Pimenta dioica) est un arbre de la famille des Myrtaceae. C'est une espèce des régions tropicales d'Amérique, dont les fruits sont à l'origine d'une épice appelée tout-épice ou quatre-épices. Le nom quatre-épices est ambigu car souvent aussi utilisé pour désigner un mélange de 4 épices qui a un goût identique au tout-épice. 
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Piment_de_la_Jama%C3%AFque</t>
+          <t>Piment_de_la_Jamaïque</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Noms vernaculaires</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>français : Poivre de la Jamaïque, piment de la Jamaïque, quatre-épices, tout-épice, piment-giroflée, poivrier-giroflée, poivre aromatique, bois d'inde.
 allemand : Piment, Neugewürz, Allgewürz, Nelkenpfeffer, Jamaicapfeffer, Englisches Gewürz.
@@ -547,7 +561,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Piment_de_la_Jama%C3%AFque</t>
+          <t>Piment_de_la_Jamaïque</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -565,7 +579,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un arbre d'environ 10 mètres de haut aux feuilles entières, opposées, persistantes, oblongues-acuminées. Ses feuilles dégagent une forte odeur de girofle.
 Les fruits sont des baies sphériques de petite taille (10 à 15 millimètres de diamètre) contenant deux graines, de couleur rouge à maturité. On doit donc les prélever avant la maturité si l'on souhaite qu'elles aient les saveurs qu’on leur connait.
@@ -580,7 +596,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Piment_de_la_Jama%C3%AFque</t>
+          <t>Piment_de_la_Jamaïque</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -598,7 +614,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le fruit séché constitue le quatre-épices, ainsi nommé parce que cette épice développe plusieurs arômes rappelant le poivre, le clou de girofle, la cannelle et la noix de muscade. Il est très utilisé dans la cuisine polonaise et parfume notamment le bigos.
 La feuille s'emploie en cuisine comme condiment, à l'instar de la feuille de laurier. Elle entre notamment dans la préparation de nombreuses recettes créoles comme celle du boudin créole, ou antillais, dont elles relèvent le goût.
@@ -613,7 +631,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Piment_de_la_Jama%C3%AFque</t>
+          <t>Piment_de_la_Jamaïque</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,7 +649,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Myrtus dioica L.
 Myrtus pimenta L.
